--- a/baidu_history_xlsx/baidu_深圳市育才中学.xlsx
+++ b/baidu_history_xlsx/baidu_深圳市育才中学.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>黄敬S</t>
+  </si>
   <si>
     <t>草色有無中</t>
   </si>
@@ -432,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -687,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -698,6 +701,17 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>2</v>
       </c>
     </row>
